--- a/Original_Class_Data.xlsx
+++ b/Original_Class_Data.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
